--- a/doctors_info.xlsx
+++ b/doctors_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>Doctor_Name</t>
   </si>
@@ -25,121 +25,79 @@
     <t>Recommendation</t>
   </si>
   <si>
-    <t>董问天</t>
-  </si>
-  <si>
-    <t>范肖冬</t>
-  </si>
-  <si>
-    <t>宋煜青</t>
-  </si>
-  <si>
-    <t>刘琦</t>
-  </si>
-  <si>
-    <t>倪照军</t>
-  </si>
-  <si>
-    <t>陈超</t>
-  </si>
-  <si>
-    <t>钱英</t>
-  </si>
-  <si>
-    <t>熊娜娜</t>
-  </si>
-  <si>
-    <t>张卫华</t>
-  </si>
-  <si>
-    <t>朱玥</t>
-  </si>
-  <si>
-    <t>王慧</t>
-  </si>
-  <si>
-    <t>姜思思</t>
-  </si>
-  <si>
-    <t>白京生</t>
-  </si>
-  <si>
-    <t>胡思帆</t>
-  </si>
-  <si>
-    <t>王锦霞</t>
-  </si>
-  <si>
-    <t>邵岩</t>
-  </si>
-  <si>
-    <t>陈爱琴</t>
-  </si>
-  <si>
-    <t>宋燕华</t>
-  </si>
-  <si>
-    <t>程嘉</t>
-  </si>
-  <si>
-    <t>杨磊</t>
-  </si>
-  <si>
-    <t>孔庆梅</t>
-  </si>
-  <si>
-    <t>廖金敏</t>
-  </si>
-  <si>
-    <t>张大荣</t>
-  </si>
-  <si>
-    <t>董平</t>
-  </si>
-  <si>
-    <t>梁军</t>
-  </si>
-  <si>
-    <t>周书喆</t>
-  </si>
-  <si>
-    <t>司飞飞</t>
-  </si>
-  <si>
-    <t>高慧敏</t>
-  </si>
-  <si>
-    <t>蒲城城</t>
-  </si>
-  <si>
-    <t>郑军然</t>
-  </si>
-  <si>
-    <t>郝晓楠</t>
-  </si>
-  <si>
-    <t>边云</t>
-  </si>
-  <si>
-    <t>李志营</t>
-  </si>
-  <si>
-    <t>张五芳</t>
-  </si>
-  <si>
-    <t>宓为峰</t>
-  </si>
-  <si>
-    <t>慕永刚</t>
-  </si>
-  <si>
-    <t>韩刚强</t>
-  </si>
-  <si>
-    <t>李佳怿</t>
-  </si>
-  <si>
-    <t>杨栋</t>
+    <t>吴海苏</t>
+  </si>
+  <si>
+    <t>盛建华</t>
+  </si>
+  <si>
+    <t>张晨</t>
+  </si>
+  <si>
+    <t>施慎逊</t>
+  </si>
+  <si>
+    <t>杨福中</t>
+  </si>
+  <si>
+    <t>何怡发</t>
+  </si>
+  <si>
+    <t>陈俊</t>
+  </si>
+  <si>
+    <t>何永光</t>
+  </si>
+  <si>
+    <t>黄继忠</t>
+  </si>
+  <si>
+    <t>李霞</t>
+  </si>
+  <si>
+    <t>王勇</t>
+  </si>
+  <si>
+    <t>卢卫红</t>
+  </si>
+  <si>
+    <t>范青</t>
+  </si>
+  <si>
+    <t>吕钦谕</t>
+  </si>
+  <si>
+    <t>刘兰英</t>
+  </si>
+  <si>
+    <t>邓红玉</t>
+  </si>
+  <si>
+    <t>李冠军</t>
+  </si>
+  <si>
+    <t>张毅</t>
+  </si>
+  <si>
+    <t>朱丽萍</t>
+  </si>
+  <si>
+    <t>洪武</t>
+  </si>
+  <si>
+    <t>张选红</t>
+  </si>
+  <si>
+    <t>陈涵</t>
+  </si>
+  <si>
+    <t>廖力维</t>
+  </si>
+  <si>
+    <t>范毅敏</t>
+  </si>
+  <si>
+    <t>沈莉莉</t>
   </si>
   <si>
     <t>主任医师</t>
@@ -151,13 +109,7 @@
     <t>主治医师</t>
   </si>
   <si>
-    <t>医师</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>3.5</t>
+    <t>3.2</t>
   </si>
 </sst>
 </file>
@@ -515,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,10 +489,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -548,10 +500,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -559,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -570,10 +522,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -581,10 +533,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -592,10 +544,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -603,10 +555,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -614,10 +566,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -625,10 +577,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -636,10 +588,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -647,10 +599,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -658,10 +610,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C13">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -669,10 +621,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -680,10 +632,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -691,10 +643,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -702,10 +654,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C17">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -713,10 +665,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C18">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -724,10 +676,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C19">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -735,10 +687,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C20">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -746,10 +698,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -757,10 +709,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -768,10 +720,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -779,10 +731,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -790,10 +742,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25">
-        <v>3.7</v>
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -801,161 +753,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="C26" t="s">
         <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
